--- a/datos/Cajititlán_Env.xlsx
+++ b/datos/Cajititlán_Env.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccopi\Desktop\dt\LICB\LEMA\Base de datos CEA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccopi\Desktop\PP\Caji\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48CD7F3-6749-41A8-AFF9-039C10D86516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A3A94E-FCB5-4CFA-ABEB-1CA6DA007D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{23288B8C-CFF6-477E-BC6E-3C842449D796}"/>
   </bookViews>
   <sheets>
     <sheet name="Env" sheetId="1" r:id="rId1"/>
-    <sheet name="EnvP" sheetId="2" r:id="rId2"/>
+    <sheet name="EnvP" sheetId="4" r:id="rId2"/>
     <sheet name="Junk" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028" concurrentCalc="0"/>
@@ -334,861 +334,6 @@
     <t>Abr</t>
   </si>
   <si>
-    <t>1May15</t>
-  </si>
-  <si>
-    <t>2May15</t>
-  </si>
-  <si>
-    <t>3May15</t>
-  </si>
-  <si>
-    <t>4May15</t>
-  </si>
-  <si>
-    <t>5May15</t>
-  </si>
-  <si>
-    <t>1Jun15</t>
-  </si>
-  <si>
-    <t>2Jun15</t>
-  </si>
-  <si>
-    <t>3Jun15</t>
-  </si>
-  <si>
-    <t>4Jun15</t>
-  </si>
-  <si>
-    <t>5Jun15</t>
-  </si>
-  <si>
-    <t>1Jul15</t>
-  </si>
-  <si>
-    <t>2Jul15</t>
-  </si>
-  <si>
-    <t>3Jul15</t>
-  </si>
-  <si>
-    <t>4Jul15</t>
-  </si>
-  <si>
-    <t>5Jul15</t>
-  </si>
-  <si>
-    <t>1Ago15</t>
-  </si>
-  <si>
-    <t>2Ago15</t>
-  </si>
-  <si>
-    <t>3Ago15</t>
-  </si>
-  <si>
-    <t>4Ago15</t>
-  </si>
-  <si>
-    <t>5Ago15</t>
-  </si>
-  <si>
-    <t>1Sep15</t>
-  </si>
-  <si>
-    <t>2Sep15</t>
-  </si>
-  <si>
-    <t>3Sep15</t>
-  </si>
-  <si>
-    <t>4Sep15</t>
-  </si>
-  <si>
-    <t>5Sep15</t>
-  </si>
-  <si>
-    <t>1Oct15</t>
-  </si>
-  <si>
-    <t>2Oct15</t>
-  </si>
-  <si>
-    <t>3Oct15</t>
-  </si>
-  <si>
-    <t>4Oct15</t>
-  </si>
-  <si>
-    <t>5Oct15</t>
-  </si>
-  <si>
-    <t>1Nov15</t>
-  </si>
-  <si>
-    <t>2Nov15</t>
-  </si>
-  <si>
-    <t>3Nov15</t>
-  </si>
-  <si>
-    <t>4Nov15</t>
-  </si>
-  <si>
-    <t>5Nov15</t>
-  </si>
-  <si>
-    <t>1Dic15</t>
-  </si>
-  <si>
-    <t>2Dic15</t>
-  </si>
-  <si>
-    <t>3Dic15</t>
-  </si>
-  <si>
-    <t>4Dic15</t>
-  </si>
-  <si>
-    <t>5Dic15</t>
-  </si>
-  <si>
-    <t>1Ene16</t>
-  </si>
-  <si>
-    <t>2Ene16</t>
-  </si>
-  <si>
-    <t>3Ene16</t>
-  </si>
-  <si>
-    <t>4Ene16</t>
-  </si>
-  <si>
-    <t>5Ene16</t>
-  </si>
-  <si>
-    <t>1Feb16</t>
-  </si>
-  <si>
-    <t>2Feb16</t>
-  </si>
-  <si>
-    <t>3Feb16</t>
-  </si>
-  <si>
-    <t>4Feb16</t>
-  </si>
-  <si>
-    <t>5Feb16</t>
-  </si>
-  <si>
-    <t>1Mar16</t>
-  </si>
-  <si>
-    <t>2Mar16</t>
-  </si>
-  <si>
-    <t>3Mar16</t>
-  </si>
-  <si>
-    <t>4Mar16</t>
-  </si>
-  <si>
-    <t>5Mar16</t>
-  </si>
-  <si>
-    <t>1Abr16</t>
-  </si>
-  <si>
-    <t>2Abr16</t>
-  </si>
-  <si>
-    <t>3Abr16</t>
-  </si>
-  <si>
-    <t>4Abr16</t>
-  </si>
-  <si>
-    <t>5Abr16</t>
-  </si>
-  <si>
-    <t>1May16</t>
-  </si>
-  <si>
-    <t>2May16</t>
-  </si>
-  <si>
-    <t>3May16</t>
-  </si>
-  <si>
-    <t>4May16</t>
-  </si>
-  <si>
-    <t>5May16</t>
-  </si>
-  <si>
-    <t>1Jun16</t>
-  </si>
-  <si>
-    <t>2Jun16</t>
-  </si>
-  <si>
-    <t>3Jun16</t>
-  </si>
-  <si>
-    <t>4Jun16</t>
-  </si>
-  <si>
-    <t>5Jun16</t>
-  </si>
-  <si>
-    <t>1Jul16</t>
-  </si>
-  <si>
-    <t>2Jul16</t>
-  </si>
-  <si>
-    <t>3Jul16</t>
-  </si>
-  <si>
-    <t>4Jul16</t>
-  </si>
-  <si>
-    <t>5Jul16</t>
-  </si>
-  <si>
-    <t>1Ago16</t>
-  </si>
-  <si>
-    <t>2Ago16</t>
-  </si>
-  <si>
-    <t>3Ago16</t>
-  </si>
-  <si>
-    <t>4Ago16</t>
-  </si>
-  <si>
-    <t>5Ago16</t>
-  </si>
-  <si>
-    <t>1Sep16</t>
-  </si>
-  <si>
-    <t>2Sep16</t>
-  </si>
-  <si>
-    <t>3Sep16</t>
-  </si>
-  <si>
-    <t>4Sep16</t>
-  </si>
-  <si>
-    <t>5Sep16</t>
-  </si>
-  <si>
-    <t>1Oct16</t>
-  </si>
-  <si>
-    <t>2Oct16</t>
-  </si>
-  <si>
-    <t>3Oct16</t>
-  </si>
-  <si>
-    <t>4Oct16</t>
-  </si>
-  <si>
-    <t>5Oct16</t>
-  </si>
-  <si>
-    <t>1Nov16</t>
-  </si>
-  <si>
-    <t>2Nov16</t>
-  </si>
-  <si>
-    <t>3Nov16</t>
-  </si>
-  <si>
-    <t>4Nov16</t>
-  </si>
-  <si>
-    <t>5Nov16</t>
-  </si>
-  <si>
-    <t>1Dic16</t>
-  </si>
-  <si>
-    <t>2Dic16</t>
-  </si>
-  <si>
-    <t>3Dic16</t>
-  </si>
-  <si>
-    <t>4Dic16</t>
-  </si>
-  <si>
-    <t>5Dic16</t>
-  </si>
-  <si>
-    <t>1Ene17</t>
-  </si>
-  <si>
-    <t>2Ene17</t>
-  </si>
-  <si>
-    <t>3Ene17</t>
-  </si>
-  <si>
-    <t>4Ene17</t>
-  </si>
-  <si>
-    <t>5Ene17</t>
-  </si>
-  <si>
-    <t>1Feb17</t>
-  </si>
-  <si>
-    <t>2Feb17</t>
-  </si>
-  <si>
-    <t>3Feb17</t>
-  </si>
-  <si>
-    <t>4Feb17</t>
-  </si>
-  <si>
-    <t>5Feb17</t>
-  </si>
-  <si>
-    <t>1Mar17</t>
-  </si>
-  <si>
-    <t>2Mar17</t>
-  </si>
-  <si>
-    <t>3Mar17</t>
-  </si>
-  <si>
-    <t>4Mar17</t>
-  </si>
-  <si>
-    <t>5Mar17</t>
-  </si>
-  <si>
-    <t>1Abr17</t>
-  </si>
-  <si>
-    <t>2Abr17</t>
-  </si>
-  <si>
-    <t>3Abr17</t>
-  </si>
-  <si>
-    <t>4Abr17</t>
-  </si>
-  <si>
-    <t>5Abr17</t>
-  </si>
-  <si>
-    <t>1May17</t>
-  </si>
-  <si>
-    <t>2May17</t>
-  </si>
-  <si>
-    <t>3May17</t>
-  </si>
-  <si>
-    <t>4May17</t>
-  </si>
-  <si>
-    <t>5May17</t>
-  </si>
-  <si>
-    <t>1Jun17</t>
-  </si>
-  <si>
-    <t>2Jun17</t>
-  </si>
-  <si>
-    <t>3Jun17</t>
-  </si>
-  <si>
-    <t>4Jun17</t>
-  </si>
-  <si>
-    <t>5Jun17</t>
-  </si>
-  <si>
-    <t>1Jul17</t>
-  </si>
-  <si>
-    <t>2Jul17</t>
-  </si>
-  <si>
-    <t>3Jul17</t>
-  </si>
-  <si>
-    <t>4Jul17</t>
-  </si>
-  <si>
-    <t>5Jul17</t>
-  </si>
-  <si>
-    <t>1Ago17</t>
-  </si>
-  <si>
-    <t>2Ago17</t>
-  </si>
-  <si>
-    <t>3Ago17</t>
-  </si>
-  <si>
-    <t>4Ago17</t>
-  </si>
-  <si>
-    <t>5Ago17</t>
-  </si>
-  <si>
-    <t>1Sep17</t>
-  </si>
-  <si>
-    <t>2Sep17</t>
-  </si>
-  <si>
-    <t>3Sep17</t>
-  </si>
-  <si>
-    <t>4Sep17</t>
-  </si>
-  <si>
-    <t>5Sep17</t>
-  </si>
-  <si>
-    <t>1Oct17</t>
-  </si>
-  <si>
-    <t>2Oct17</t>
-  </si>
-  <si>
-    <t>3Oct17</t>
-  </si>
-  <si>
-    <t>4Oct17</t>
-  </si>
-  <si>
-    <t>5Oct17</t>
-  </si>
-  <si>
-    <t>1Nov17</t>
-  </si>
-  <si>
-    <t>2Nov17</t>
-  </si>
-  <si>
-    <t>3Nov17</t>
-  </si>
-  <si>
-    <t>4Nov17</t>
-  </si>
-  <si>
-    <t>5Nov17</t>
-  </si>
-  <si>
-    <t>1Dic17</t>
-  </si>
-  <si>
-    <t>2Dic17</t>
-  </si>
-  <si>
-    <t>3Dic17</t>
-  </si>
-  <si>
-    <t>4Dic17</t>
-  </si>
-  <si>
-    <t>5Dic17</t>
-  </si>
-  <si>
-    <t>1Ene18</t>
-  </si>
-  <si>
-    <t>2Ene18</t>
-  </si>
-  <si>
-    <t>3Ene18</t>
-  </si>
-  <si>
-    <t>4Ene18</t>
-  </si>
-  <si>
-    <t>5Ene18</t>
-  </si>
-  <si>
-    <t>1Feb18</t>
-  </si>
-  <si>
-    <t>2Feb18</t>
-  </si>
-  <si>
-    <t>3Feb18</t>
-  </si>
-  <si>
-    <t>4Feb18</t>
-  </si>
-  <si>
-    <t>5Feb18</t>
-  </si>
-  <si>
-    <t>1Mar18</t>
-  </si>
-  <si>
-    <t>2Mar18</t>
-  </si>
-  <si>
-    <t>3Mar18</t>
-  </si>
-  <si>
-    <t>4Mar18</t>
-  </si>
-  <si>
-    <t>5Mar18</t>
-  </si>
-  <si>
-    <t>1Abr18</t>
-  </si>
-  <si>
-    <t>2Abr18</t>
-  </si>
-  <si>
-    <t>3Abr18</t>
-  </si>
-  <si>
-    <t>4Abr18</t>
-  </si>
-  <si>
-    <t>5Abr18</t>
-  </si>
-  <si>
-    <t>1May18</t>
-  </si>
-  <si>
-    <t>2May18</t>
-  </si>
-  <si>
-    <t>3May18</t>
-  </si>
-  <si>
-    <t>4May18</t>
-  </si>
-  <si>
-    <t>5May18</t>
-  </si>
-  <si>
-    <t>1Jun18</t>
-  </si>
-  <si>
-    <t>2Jun18</t>
-  </si>
-  <si>
-    <t>3Jun18</t>
-  </si>
-  <si>
-    <t>4Jun18</t>
-  </si>
-  <si>
-    <t>5Jun18</t>
-  </si>
-  <si>
-    <t>1Jul18</t>
-  </si>
-  <si>
-    <t>2Jul18</t>
-  </si>
-  <si>
-    <t>3Jul18</t>
-  </si>
-  <si>
-    <t>4Jul18</t>
-  </si>
-  <si>
-    <t>5Jul18</t>
-  </si>
-  <si>
-    <t>1Ago18</t>
-  </si>
-  <si>
-    <t>2Ago18</t>
-  </si>
-  <si>
-    <t>3Ago18</t>
-  </si>
-  <si>
-    <t>4Ago18</t>
-  </si>
-  <si>
-    <t>5Ago18</t>
-  </si>
-  <si>
-    <t>1Sep18</t>
-  </si>
-  <si>
-    <t>2Sep18</t>
-  </si>
-  <si>
-    <t>3Sep18</t>
-  </si>
-  <si>
-    <t>4Sep18</t>
-  </si>
-  <si>
-    <t>5Sep18</t>
-  </si>
-  <si>
-    <t>1Oct18</t>
-  </si>
-  <si>
-    <t>2Oct18</t>
-  </si>
-  <si>
-    <t>3Oct18</t>
-  </si>
-  <si>
-    <t>4Oct18</t>
-  </si>
-  <si>
-    <t>5Oct18</t>
-  </si>
-  <si>
-    <t>1Nov18</t>
-  </si>
-  <si>
-    <t>2Nov18</t>
-  </si>
-  <si>
-    <t>3Nov18</t>
-  </si>
-  <si>
-    <t>4Nov18</t>
-  </si>
-  <si>
-    <t>5Nov18</t>
-  </si>
-  <si>
-    <t>1Dic18</t>
-  </si>
-  <si>
-    <t>2Dic18</t>
-  </si>
-  <si>
-    <t>3Dic18</t>
-  </si>
-  <si>
-    <t>4Dic18</t>
-  </si>
-  <si>
-    <t>5Dic18</t>
-  </si>
-  <si>
-    <t>1Ene19</t>
-  </si>
-  <si>
-    <t>2Ene19</t>
-  </si>
-  <si>
-    <t>3Ene19</t>
-  </si>
-  <si>
-    <t>4Ene19</t>
-  </si>
-  <si>
-    <t>5Ene19</t>
-  </si>
-  <si>
-    <t>1Feb19</t>
-  </si>
-  <si>
-    <t>2Feb19</t>
-  </si>
-  <si>
-    <t>3Feb19</t>
-  </si>
-  <si>
-    <t>4Feb19</t>
-  </si>
-  <si>
-    <t>5Feb19</t>
-  </si>
-  <si>
-    <t>1Mar19</t>
-  </si>
-  <si>
-    <t>2Mar19</t>
-  </si>
-  <si>
-    <t>3Mar19</t>
-  </si>
-  <si>
-    <t>4Mar19</t>
-  </si>
-  <si>
-    <t>5Mar19</t>
-  </si>
-  <si>
-    <t>1Abr19</t>
-  </si>
-  <si>
-    <t>2Abr19</t>
-  </si>
-  <si>
-    <t>3Abr19</t>
-  </si>
-  <si>
-    <t>4Abr19</t>
-  </si>
-  <si>
-    <t>5Abr19</t>
-  </si>
-  <si>
-    <t>1May19</t>
-  </si>
-  <si>
-    <t>2May19</t>
-  </si>
-  <si>
-    <t>3May19</t>
-  </si>
-  <si>
-    <t>4May19</t>
-  </si>
-  <si>
-    <t>5May19</t>
-  </si>
-  <si>
-    <t>1Jun19</t>
-  </si>
-  <si>
-    <t>2Jun19</t>
-  </si>
-  <si>
-    <t>3Jun19</t>
-  </si>
-  <si>
-    <t>4Jun19</t>
-  </si>
-  <si>
-    <t>5Jun19</t>
-  </si>
-  <si>
-    <t>1Jul19</t>
-  </si>
-  <si>
-    <t>2Jul19</t>
-  </si>
-  <si>
-    <t>3Jul19</t>
-  </si>
-  <si>
-    <t>4Jul19</t>
-  </si>
-  <si>
-    <t>5Jul19</t>
-  </si>
-  <si>
-    <t>1Ago19</t>
-  </si>
-  <si>
-    <t>2Ago19</t>
-  </si>
-  <si>
-    <t>3Ago19</t>
-  </si>
-  <si>
-    <t>4Ago19</t>
-  </si>
-  <si>
-    <t>5Ago19</t>
-  </si>
-  <si>
-    <t>1Sep19</t>
-  </si>
-  <si>
-    <t>2Sep19</t>
-  </si>
-  <si>
-    <t>3Sep19</t>
-  </si>
-  <si>
-    <t>4Sep19</t>
-  </si>
-  <si>
-    <t>5Sep19</t>
-  </si>
-  <si>
-    <t>1Oct19</t>
-  </si>
-  <si>
-    <t>2Oct19</t>
-  </si>
-  <si>
-    <t>3Oct19</t>
-  </si>
-  <si>
-    <t>4Oct19</t>
-  </si>
-  <si>
-    <t>5Oct19</t>
-  </si>
-  <si>
-    <t>1Nov19</t>
-  </si>
-  <si>
-    <t>2Nov19</t>
-  </si>
-  <si>
-    <t>3Nov19</t>
-  </si>
-  <si>
-    <t>4Nov19</t>
-  </si>
-  <si>
-    <t>5Nov19</t>
-  </si>
-  <si>
-    <t>1Dic19</t>
-  </si>
-  <si>
-    <t>2Dic19</t>
-  </si>
-  <si>
-    <t>3Dic19</t>
-  </si>
-  <si>
-    <t>4Dic19</t>
-  </si>
-  <si>
-    <t>5Dic19</t>
-  </si>
-  <si>
-    <t>1Ene20</t>
-  </si>
-  <si>
-    <t>2Ene20</t>
-  </si>
-  <si>
-    <t>3Ene20</t>
-  </si>
-  <si>
-    <t>4Ene20</t>
-  </si>
-  <si>
-    <t>5Ene20</t>
-  </si>
-  <si>
     <t>Tiempo</t>
   </si>
   <si>
@@ -1298,6 +443,861 @@
   </si>
   <si>
     <t>CajititlanEnv</t>
+  </si>
+  <si>
+    <t>E1May15</t>
+  </si>
+  <si>
+    <t>E2May15</t>
+  </si>
+  <si>
+    <t>E3May15</t>
+  </si>
+  <si>
+    <t>E4May15</t>
+  </si>
+  <si>
+    <t>E5May15</t>
+  </si>
+  <si>
+    <t>E1Jun15</t>
+  </si>
+  <si>
+    <t>E2Jun15</t>
+  </si>
+  <si>
+    <t>E3Jun15</t>
+  </si>
+  <si>
+    <t>E4Jun15</t>
+  </si>
+  <si>
+    <t>E5Jun15</t>
+  </si>
+  <si>
+    <t>E1Jul15</t>
+  </si>
+  <si>
+    <t>E2Jul15</t>
+  </si>
+  <si>
+    <t>E3Jul15</t>
+  </si>
+  <si>
+    <t>E4Jul15</t>
+  </si>
+  <si>
+    <t>E5Jul15</t>
+  </si>
+  <si>
+    <t>E1Ago15</t>
+  </si>
+  <si>
+    <t>E2Ago15</t>
+  </si>
+  <si>
+    <t>E3Ago15</t>
+  </si>
+  <si>
+    <t>E4Ago15</t>
+  </si>
+  <si>
+    <t>E5Ago15</t>
+  </si>
+  <si>
+    <t>E1Sep15</t>
+  </si>
+  <si>
+    <t>E2Sep15</t>
+  </si>
+  <si>
+    <t>E3Sep15</t>
+  </si>
+  <si>
+    <t>E4Sep15</t>
+  </si>
+  <si>
+    <t>E5Sep15</t>
+  </si>
+  <si>
+    <t>E1Oct15</t>
+  </si>
+  <si>
+    <t>E2Oct15</t>
+  </si>
+  <si>
+    <t>E3Oct15</t>
+  </si>
+  <si>
+    <t>E4Oct15</t>
+  </si>
+  <si>
+    <t>E5Oct15</t>
+  </si>
+  <si>
+    <t>E1Nov15</t>
+  </si>
+  <si>
+    <t>E2Nov15</t>
+  </si>
+  <si>
+    <t>E3Nov15</t>
+  </si>
+  <si>
+    <t>E4Nov15</t>
+  </si>
+  <si>
+    <t>E5Nov15</t>
+  </si>
+  <si>
+    <t>E1Dic15</t>
+  </si>
+  <si>
+    <t>E2Dic15</t>
+  </si>
+  <si>
+    <t>E3Dic15</t>
+  </si>
+  <si>
+    <t>E4Dic15</t>
+  </si>
+  <si>
+    <t>E5Dic15</t>
+  </si>
+  <si>
+    <t>E1Ene16</t>
+  </si>
+  <si>
+    <t>E2Ene16</t>
+  </si>
+  <si>
+    <t>E3Ene16</t>
+  </si>
+  <si>
+    <t>E4Ene16</t>
+  </si>
+  <si>
+    <t>E5Ene16</t>
+  </si>
+  <si>
+    <t>E1Feb16</t>
+  </si>
+  <si>
+    <t>E2Feb16</t>
+  </si>
+  <si>
+    <t>E3Feb16</t>
+  </si>
+  <si>
+    <t>E4Feb16</t>
+  </si>
+  <si>
+    <t>E5Feb16</t>
+  </si>
+  <si>
+    <t>E1Mar16</t>
+  </si>
+  <si>
+    <t>E2Mar16</t>
+  </si>
+  <si>
+    <t>E3Mar16</t>
+  </si>
+  <si>
+    <t>E4Mar16</t>
+  </si>
+  <si>
+    <t>E5Mar16</t>
+  </si>
+  <si>
+    <t>E1Abr16</t>
+  </si>
+  <si>
+    <t>E2Abr16</t>
+  </si>
+  <si>
+    <t>E3Abr16</t>
+  </si>
+  <si>
+    <t>E4Abr16</t>
+  </si>
+  <si>
+    <t>E5Abr16</t>
+  </si>
+  <si>
+    <t>E1May16</t>
+  </si>
+  <si>
+    <t>E2May16</t>
+  </si>
+  <si>
+    <t>E3May16</t>
+  </si>
+  <si>
+    <t>E4May16</t>
+  </si>
+  <si>
+    <t>E5May16</t>
+  </si>
+  <si>
+    <t>E1Jun16</t>
+  </si>
+  <si>
+    <t>E2Jun16</t>
+  </si>
+  <si>
+    <t>E3Jun16</t>
+  </si>
+  <si>
+    <t>E4Jun16</t>
+  </si>
+  <si>
+    <t>E5Jun16</t>
+  </si>
+  <si>
+    <t>E1Jul16</t>
+  </si>
+  <si>
+    <t>E2Jul16</t>
+  </si>
+  <si>
+    <t>E3Jul16</t>
+  </si>
+  <si>
+    <t>E4Jul16</t>
+  </si>
+  <si>
+    <t>E5Jul16</t>
+  </si>
+  <si>
+    <t>E1Ago16</t>
+  </si>
+  <si>
+    <t>E2Ago16</t>
+  </si>
+  <si>
+    <t>E3Ago16</t>
+  </si>
+  <si>
+    <t>E4Ago16</t>
+  </si>
+  <si>
+    <t>E5Ago16</t>
+  </si>
+  <si>
+    <t>E1Sep16</t>
+  </si>
+  <si>
+    <t>E2Sep16</t>
+  </si>
+  <si>
+    <t>E3Sep16</t>
+  </si>
+  <si>
+    <t>E4Sep16</t>
+  </si>
+  <si>
+    <t>E5Sep16</t>
+  </si>
+  <si>
+    <t>E1Oct16</t>
+  </si>
+  <si>
+    <t>E2Oct16</t>
+  </si>
+  <si>
+    <t>E3Oct16</t>
+  </si>
+  <si>
+    <t>E4Oct16</t>
+  </si>
+  <si>
+    <t>E5Oct16</t>
+  </si>
+  <si>
+    <t>E1Nov16</t>
+  </si>
+  <si>
+    <t>E2Nov16</t>
+  </si>
+  <si>
+    <t>E3Nov16</t>
+  </si>
+  <si>
+    <t>E4Nov16</t>
+  </si>
+  <si>
+    <t>E5Nov16</t>
+  </si>
+  <si>
+    <t>E1Dic16</t>
+  </si>
+  <si>
+    <t>E2Dic16</t>
+  </si>
+  <si>
+    <t>E3Dic16</t>
+  </si>
+  <si>
+    <t>E4Dic16</t>
+  </si>
+  <si>
+    <t>E5Dic16</t>
+  </si>
+  <si>
+    <t>E1Ene17</t>
+  </si>
+  <si>
+    <t>E2Ene17</t>
+  </si>
+  <si>
+    <t>E3Ene17</t>
+  </si>
+  <si>
+    <t>E4Ene17</t>
+  </si>
+  <si>
+    <t>E5Ene17</t>
+  </si>
+  <si>
+    <t>E1Feb17</t>
+  </si>
+  <si>
+    <t>E2Feb17</t>
+  </si>
+  <si>
+    <t>E3Feb17</t>
+  </si>
+  <si>
+    <t>E4Feb17</t>
+  </si>
+  <si>
+    <t>E5Feb17</t>
+  </si>
+  <si>
+    <t>E1Mar17</t>
+  </si>
+  <si>
+    <t>E2Mar17</t>
+  </si>
+  <si>
+    <t>E3Mar17</t>
+  </si>
+  <si>
+    <t>E4Mar17</t>
+  </si>
+  <si>
+    <t>E5Mar17</t>
+  </si>
+  <si>
+    <t>E1Abr17</t>
+  </si>
+  <si>
+    <t>E2Abr17</t>
+  </si>
+  <si>
+    <t>E3Abr17</t>
+  </si>
+  <si>
+    <t>E4Abr17</t>
+  </si>
+  <si>
+    <t>E5Abr17</t>
+  </si>
+  <si>
+    <t>E1May17</t>
+  </si>
+  <si>
+    <t>E2May17</t>
+  </si>
+  <si>
+    <t>E3May17</t>
+  </si>
+  <si>
+    <t>E4May17</t>
+  </si>
+  <si>
+    <t>E5May17</t>
+  </si>
+  <si>
+    <t>E1Jun17</t>
+  </si>
+  <si>
+    <t>E2Jun17</t>
+  </si>
+  <si>
+    <t>E3Jun17</t>
+  </si>
+  <si>
+    <t>E4Jun17</t>
+  </si>
+  <si>
+    <t>E5Jun17</t>
+  </si>
+  <si>
+    <t>E1Jul17</t>
+  </si>
+  <si>
+    <t>E2Jul17</t>
+  </si>
+  <si>
+    <t>E3Jul17</t>
+  </si>
+  <si>
+    <t>E4Jul17</t>
+  </si>
+  <si>
+    <t>E5Jul17</t>
+  </si>
+  <si>
+    <t>E1Ago17</t>
+  </si>
+  <si>
+    <t>E2Ago17</t>
+  </si>
+  <si>
+    <t>E3Ago17</t>
+  </si>
+  <si>
+    <t>E4Ago17</t>
+  </si>
+  <si>
+    <t>E5Ago17</t>
+  </si>
+  <si>
+    <t>E1Sep17</t>
+  </si>
+  <si>
+    <t>E2Sep17</t>
+  </si>
+  <si>
+    <t>E3Sep17</t>
+  </si>
+  <si>
+    <t>E4Sep17</t>
+  </si>
+  <si>
+    <t>E5Sep17</t>
+  </si>
+  <si>
+    <t>E1Oct17</t>
+  </si>
+  <si>
+    <t>E2Oct17</t>
+  </si>
+  <si>
+    <t>E3Oct17</t>
+  </si>
+  <si>
+    <t>E4Oct17</t>
+  </si>
+  <si>
+    <t>E5Oct17</t>
+  </si>
+  <si>
+    <t>E1Nov17</t>
+  </si>
+  <si>
+    <t>E2Nov17</t>
+  </si>
+  <si>
+    <t>E3Nov17</t>
+  </si>
+  <si>
+    <t>E4Nov17</t>
+  </si>
+  <si>
+    <t>E5Nov17</t>
+  </si>
+  <si>
+    <t>E1Dic17</t>
+  </si>
+  <si>
+    <t>E2Dic17</t>
+  </si>
+  <si>
+    <t>E3Dic17</t>
+  </si>
+  <si>
+    <t>E4Dic17</t>
+  </si>
+  <si>
+    <t>E5Dic17</t>
+  </si>
+  <si>
+    <t>E1Ene18</t>
+  </si>
+  <si>
+    <t>E2Ene18</t>
+  </si>
+  <si>
+    <t>E3Ene18</t>
+  </si>
+  <si>
+    <t>E4Ene18</t>
+  </si>
+  <si>
+    <t>E5Ene18</t>
+  </si>
+  <si>
+    <t>E1Feb18</t>
+  </si>
+  <si>
+    <t>E2Feb18</t>
+  </si>
+  <si>
+    <t>E3Feb18</t>
+  </si>
+  <si>
+    <t>E4Feb18</t>
+  </si>
+  <si>
+    <t>E5Feb18</t>
+  </si>
+  <si>
+    <t>E1Mar18</t>
+  </si>
+  <si>
+    <t>E2Mar18</t>
+  </si>
+  <si>
+    <t>E3Mar18</t>
+  </si>
+  <si>
+    <t>E4Mar18</t>
+  </si>
+  <si>
+    <t>E5Mar18</t>
+  </si>
+  <si>
+    <t>E1Abr18</t>
+  </si>
+  <si>
+    <t>E2Abr18</t>
+  </si>
+  <si>
+    <t>E3Abr18</t>
+  </si>
+  <si>
+    <t>E4Abr18</t>
+  </si>
+  <si>
+    <t>E5Abr18</t>
+  </si>
+  <si>
+    <t>E1May18</t>
+  </si>
+  <si>
+    <t>E2May18</t>
+  </si>
+  <si>
+    <t>E3May18</t>
+  </si>
+  <si>
+    <t>E4May18</t>
+  </si>
+  <si>
+    <t>E5May18</t>
+  </si>
+  <si>
+    <t>E1Jun18</t>
+  </si>
+  <si>
+    <t>E2Jun18</t>
+  </si>
+  <si>
+    <t>E3Jun18</t>
+  </si>
+  <si>
+    <t>E4Jun18</t>
+  </si>
+  <si>
+    <t>E5Jun18</t>
+  </si>
+  <si>
+    <t>E1Jul18</t>
+  </si>
+  <si>
+    <t>E2Jul18</t>
+  </si>
+  <si>
+    <t>E3Jul18</t>
+  </si>
+  <si>
+    <t>E4Jul18</t>
+  </si>
+  <si>
+    <t>E5Jul18</t>
+  </si>
+  <si>
+    <t>E1Ago18</t>
+  </si>
+  <si>
+    <t>E2Ago18</t>
+  </si>
+  <si>
+    <t>E3Ago18</t>
+  </si>
+  <si>
+    <t>E4Ago18</t>
+  </si>
+  <si>
+    <t>E5Ago18</t>
+  </si>
+  <si>
+    <t>E1Sep18</t>
+  </si>
+  <si>
+    <t>E2Sep18</t>
+  </si>
+  <si>
+    <t>E3Sep18</t>
+  </si>
+  <si>
+    <t>E4Sep18</t>
+  </si>
+  <si>
+    <t>E5Sep18</t>
+  </si>
+  <si>
+    <t>E1Oct18</t>
+  </si>
+  <si>
+    <t>E2Oct18</t>
+  </si>
+  <si>
+    <t>E3Oct18</t>
+  </si>
+  <si>
+    <t>E4Oct18</t>
+  </si>
+  <si>
+    <t>E5Oct18</t>
+  </si>
+  <si>
+    <t>E1Nov18</t>
+  </si>
+  <si>
+    <t>E2Nov18</t>
+  </si>
+  <si>
+    <t>E3Nov18</t>
+  </si>
+  <si>
+    <t>E4Nov18</t>
+  </si>
+  <si>
+    <t>E5Nov18</t>
+  </si>
+  <si>
+    <t>E1Dic18</t>
+  </si>
+  <si>
+    <t>E2Dic18</t>
+  </si>
+  <si>
+    <t>E3Dic18</t>
+  </si>
+  <si>
+    <t>E4Dic18</t>
+  </si>
+  <si>
+    <t>E5Dic18</t>
+  </si>
+  <si>
+    <t>E1Ene19</t>
+  </si>
+  <si>
+    <t>E2Ene19</t>
+  </si>
+  <si>
+    <t>E3Ene19</t>
+  </si>
+  <si>
+    <t>E4Ene19</t>
+  </si>
+  <si>
+    <t>E5Ene19</t>
+  </si>
+  <si>
+    <t>E1Feb19</t>
+  </si>
+  <si>
+    <t>E2Feb19</t>
+  </si>
+  <si>
+    <t>E3Feb19</t>
+  </si>
+  <si>
+    <t>E4Feb19</t>
+  </si>
+  <si>
+    <t>E5Feb19</t>
+  </si>
+  <si>
+    <t>E1Mar19</t>
+  </si>
+  <si>
+    <t>E2Mar19</t>
+  </si>
+  <si>
+    <t>E3Mar19</t>
+  </si>
+  <si>
+    <t>E4Mar19</t>
+  </si>
+  <si>
+    <t>E5Mar19</t>
+  </si>
+  <si>
+    <t>E1Abr19</t>
+  </si>
+  <si>
+    <t>E2Abr19</t>
+  </si>
+  <si>
+    <t>E3Abr19</t>
+  </si>
+  <si>
+    <t>E4Abr19</t>
+  </si>
+  <si>
+    <t>E5Abr19</t>
+  </si>
+  <si>
+    <t>E1May19</t>
+  </si>
+  <si>
+    <t>E2May19</t>
+  </si>
+  <si>
+    <t>E3May19</t>
+  </si>
+  <si>
+    <t>E4May19</t>
+  </si>
+  <si>
+    <t>E5May19</t>
+  </si>
+  <si>
+    <t>E1Jun19</t>
+  </si>
+  <si>
+    <t>E2Jun19</t>
+  </si>
+  <si>
+    <t>E3Jun19</t>
+  </si>
+  <si>
+    <t>E4Jun19</t>
+  </si>
+  <si>
+    <t>E5Jun19</t>
+  </si>
+  <si>
+    <t>E1Jul19</t>
+  </si>
+  <si>
+    <t>E2Jul19</t>
+  </si>
+  <si>
+    <t>E3Jul19</t>
+  </si>
+  <si>
+    <t>E4Jul19</t>
+  </si>
+  <si>
+    <t>E5Jul19</t>
+  </si>
+  <si>
+    <t>E1Ago19</t>
+  </si>
+  <si>
+    <t>E2Ago19</t>
+  </si>
+  <si>
+    <t>E3Ago19</t>
+  </si>
+  <si>
+    <t>E4Ago19</t>
+  </si>
+  <si>
+    <t>E5Ago19</t>
+  </si>
+  <si>
+    <t>E1Sep19</t>
+  </si>
+  <si>
+    <t>E2Sep19</t>
+  </si>
+  <si>
+    <t>E3Sep19</t>
+  </si>
+  <si>
+    <t>E4Sep19</t>
+  </si>
+  <si>
+    <t>E5Sep19</t>
+  </si>
+  <si>
+    <t>E1Oct19</t>
+  </si>
+  <si>
+    <t>E2Oct19</t>
+  </si>
+  <si>
+    <t>E3Oct19</t>
+  </si>
+  <si>
+    <t>E4Oct19</t>
+  </si>
+  <si>
+    <t>E5Oct19</t>
+  </si>
+  <si>
+    <t>E1Nov19</t>
+  </si>
+  <si>
+    <t>E2Nov19</t>
+  </si>
+  <si>
+    <t>E3Nov19</t>
+  </si>
+  <si>
+    <t>E4Nov19</t>
+  </si>
+  <si>
+    <t>E5Nov19</t>
+  </si>
+  <si>
+    <t>E1Dic19</t>
+  </si>
+  <si>
+    <t>E2Dic19</t>
+  </si>
+  <si>
+    <t>E3Dic19</t>
+  </si>
+  <si>
+    <t>E4Dic19</t>
+  </si>
+  <si>
+    <t>E5Dic19</t>
+  </si>
+  <si>
+    <t>E1Ene20</t>
+  </si>
+  <si>
+    <t>E2Ene20</t>
+  </si>
+  <si>
+    <t>E3Ene20</t>
+  </si>
+  <si>
+    <t>E4Ene20</t>
+  </si>
+  <si>
+    <t>E5Ene20</t>
   </si>
 </sst>
 </file>
@@ -2110,22 +2110,52 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2155,43 +2185,13 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2602,162 +2602,162 @@
       <c r="AZ1"/>
     </row>
     <row r="2" spans="1:52" s="118" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="148" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="150" t="s">
+      <c r="A2" s="158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="152" t="s">
+      <c r="C2" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="154" t="s">
+      <c r="D2" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="156" t="s">
+      <c r="E2" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142" t="s">
+      <c r="F2" s="152"/>
+      <c r="G2" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142" t="s">
+      <c r="H2" s="152"/>
+      <c r="I2" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="142"/>
+      <c r="J2" s="152"/>
       <c r="K2" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="142" t="s">
+      <c r="L2" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="142" t="s">
+      <c r="M2" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="157" t="s">
+      <c r="N2" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="159" t="s">
+      <c r="O2" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="146" t="s">
+      <c r="P2" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="146" t="s">
+      <c r="Q2" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="146" t="s">
+      <c r="R2" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="146" t="s">
+      <c r="S2" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="146" t="s">
+      <c r="T2" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="168" t="s">
+      <c r="U2" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="164" t="s">
+      <c r="V2" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="W2" s="166" t="s">
+      <c r="W2" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="166" t="s">
+      <c r="X2" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" s="166" t="s">
+      <c r="Y2" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="166" t="s">
+      <c r="Z2" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="AA2" s="166" t="s">
+      <c r="AA2" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="162" t="s">
+      <c r="AB2" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="AC2" s="162" t="s">
+      <c r="AC2" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="AD2" s="162" t="s">
+      <c r="AD2" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="AE2" s="146" t="s">
+      <c r="AE2" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="AF2" s="146" t="s">
+      <c r="AF2" s="144" t="s">
         <v>55</v>
       </c>
-      <c r="AG2" s="146" t="s">
+      <c r="AG2" s="144" t="s">
         <v>56</v>
       </c>
-      <c r="AH2" s="146" t="s">
+      <c r="AH2" s="144" t="s">
         <v>57</v>
       </c>
-      <c r="AI2" s="146" t="s">
+      <c r="AI2" s="144" t="s">
         <v>58</v>
       </c>
-      <c r="AJ2" s="146" t="s">
+      <c r="AJ2" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="AK2" s="146" t="s">
+      <c r="AK2" s="144" t="s">
         <v>60</v>
       </c>
-      <c r="AL2" s="146" t="s">
+      <c r="AL2" s="144" t="s">
         <v>61</v>
       </c>
-      <c r="AM2" s="146" t="s">
+      <c r="AM2" s="144" t="s">
         <v>62</v>
       </c>
-      <c r="AN2" s="146" t="s">
+      <c r="AN2" s="144" t="s">
         <v>63</v>
       </c>
-      <c r="AO2" s="146" t="s">
+      <c r="AO2" s="144" t="s">
         <v>64</v>
       </c>
-      <c r="AP2" s="146" t="s">
+      <c r="AP2" s="144" t="s">
         <v>65</v>
       </c>
-      <c r="AQ2" s="142" t="s">
+      <c r="AQ2" s="152" t="s">
         <v>66</v>
       </c>
-      <c r="AR2" s="142" t="s">
+      <c r="AR2" s="152" t="s">
         <v>67</v>
       </c>
-      <c r="AS2" s="142" t="s">
+      <c r="AS2" s="152" t="s">
         <v>68</v>
       </c>
-      <c r="AT2" s="142" t="s">
+      <c r="AT2" s="152" t="s">
         <v>69</v>
       </c>
-      <c r="AU2" s="142" t="s">
+      <c r="AU2" s="152" t="s">
         <v>70</v>
       </c>
-      <c r="AV2" s="142" t="s">
+      <c r="AV2" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="AW2" s="142" t="s">
+      <c r="AW2" s="152" t="s">
         <v>72</v>
       </c>
-      <c r="AX2" s="142" t="s">
+      <c r="AX2" s="152" t="s">
         <v>73</v>
       </c>
-      <c r="AY2" s="142" t="s">
+      <c r="AY2" s="152" t="s">
         <v>74</v>
       </c>
-      <c r="AZ2" s="144" t="s">
+      <c r="AZ2" s="168" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:52" s="118" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="149"/>
-      <c r="B3" s="151"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="155"/>
+      <c r="A3" s="159"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="165"/>
       <c r="E3" s="112" t="s">
         <v>26</v>
       </c>
@@ -2779,47 +2779,47 @@
       <c r="K3" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="158"/>
-      <c r="O3" s="160"/>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="161"/>
-      <c r="R3" s="161"/>
-      <c r="S3" s="161"/>
-      <c r="T3" s="161"/>
-      <c r="U3" s="169"/>
-      <c r="V3" s="165"/>
-      <c r="W3" s="167"/>
-      <c r="X3" s="167"/>
-      <c r="Y3" s="167"/>
-      <c r="Z3" s="167"/>
-      <c r="AA3" s="167"/>
-      <c r="AB3" s="163"/>
-      <c r="AC3" s="163"/>
-      <c r="AD3" s="163"/>
-      <c r="AE3" s="147"/>
-      <c r="AF3" s="147"/>
-      <c r="AG3" s="147"/>
-      <c r="AH3" s="147"/>
-      <c r="AI3" s="147"/>
-      <c r="AJ3" s="147"/>
-      <c r="AK3" s="147"/>
-      <c r="AL3" s="147"/>
-      <c r="AM3" s="147"/>
-      <c r="AN3" s="147"/>
-      <c r="AO3" s="147"/>
-      <c r="AP3" s="147"/>
-      <c r="AQ3" s="143"/>
-      <c r="AR3" s="143"/>
-      <c r="AS3" s="143"/>
-      <c r="AT3" s="143"/>
-      <c r="AU3" s="143"/>
-      <c r="AV3" s="143"/>
-      <c r="AW3" s="143"/>
-      <c r="AX3" s="143"/>
-      <c r="AY3" s="143"/>
-      <c r="AZ3" s="145"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="153"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="157"/>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="145"/>
+      <c r="S3" s="145"/>
+      <c r="T3" s="145"/>
+      <c r="U3" s="151"/>
+      <c r="V3" s="147"/>
+      <c r="W3" s="149"/>
+      <c r="X3" s="149"/>
+      <c r="Y3" s="149"/>
+      <c r="Z3" s="149"/>
+      <c r="AA3" s="149"/>
+      <c r="AB3" s="143"/>
+      <c r="AC3" s="143"/>
+      <c r="AD3" s="143"/>
+      <c r="AE3" s="167"/>
+      <c r="AF3" s="167"/>
+      <c r="AG3" s="167"/>
+      <c r="AH3" s="167"/>
+      <c r="AI3" s="167"/>
+      <c r="AJ3" s="167"/>
+      <c r="AK3" s="167"/>
+      <c r="AL3" s="167"/>
+      <c r="AM3" s="167"/>
+      <c r="AN3" s="167"/>
+      <c r="AO3" s="167"/>
+      <c r="AP3" s="167"/>
+      <c r="AQ3" s="153"/>
+      <c r="AR3" s="153"/>
+      <c r="AS3" s="153"/>
+      <c r="AT3" s="153"/>
+      <c r="AU3" s="153"/>
+      <c r="AV3" s="153"/>
+      <c r="AW3" s="153"/>
+      <c r="AX3" s="153"/>
+      <c r="AY3" s="153"/>
+      <c r="AZ3" s="169"/>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A4" s="44">
@@ -46969,6 +46969,40 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
     <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="AC2:AC3"/>
     <mergeCell ref="AD2:AD3"/>
@@ -46983,40 +47017,6 @@
     <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="U2:U3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AX2:AX3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47025,18 +47025,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E300D20-B087-4CE0-88BC-9B4ED74E2E3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F147FEA-BF3F-4631-8EB6-2C924D13CB49}">
   <dimension ref="A1:AQ287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:AQ287"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>412</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.3">
@@ -47161,12 +47161,12 @@
         <v>3</v>
       </c>
       <c r="AQ2" t="s">
-        <v>376</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="B3">
         <v>27</v>
@@ -47294,7 +47294,7 @@
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="B4">
         <v>22</v>
@@ -47422,7 +47422,7 @@
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="B5">
         <v>24</v>
@@ -47550,7 +47550,7 @@
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="B6">
         <v>24</v>
@@ -47678,7 +47678,7 @@
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="B7">
         <v>25</v>
@@ -47806,7 +47806,7 @@
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="B8">
         <v>25</v>
@@ -47934,7 +47934,7 @@
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="B9">
         <v>22</v>
@@ -48062,7 +48062,7 @@
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="B10">
         <v>23</v>
@@ -48190,7 +48190,7 @@
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="B11">
         <v>25</v>
@@ -48318,7 +48318,7 @@
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="B12">
         <v>25</v>
@@ -48446,7 +48446,7 @@
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="B13">
         <v>26</v>
@@ -48574,7 +48574,7 @@
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="B14">
         <v>22</v>
@@ -48702,7 +48702,7 @@
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="B15">
         <v>24</v>
@@ -48830,7 +48830,7 @@
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="B16">
         <v>24</v>
@@ -48958,7 +48958,7 @@
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="B17">
         <v>24</v>
@@ -49086,7 +49086,7 @@
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="B18">
         <v>25</v>
@@ -49214,7 +49214,7 @@
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="B19">
         <v>21</v>
@@ -49342,7 +49342,7 @@
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="B20">
         <v>22</v>
@@ -49470,7 +49470,7 @@
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="B21">
         <v>23</v>
@@ -49598,7 +49598,7 @@
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="B22">
         <v>24</v>
@@ -49726,7 +49726,7 @@
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="B23">
         <v>24</v>
@@ -49854,7 +49854,7 @@
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="B24">
         <v>22</v>
@@ -49982,7 +49982,7 @@
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -50110,7 +50110,7 @@
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="B26">
         <v>24</v>
@@ -50238,7 +50238,7 @@
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="B27">
         <v>24</v>
@@ -50366,7 +50366,7 @@
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="B28">
         <v>27.4</v>
@@ -50494,7 +50494,7 @@
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="B29">
         <v>26.2</v>
@@ -50622,7 +50622,7 @@
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="B30">
         <v>24.4</v>
@@ -50750,7 +50750,7 @@
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="B31">
         <v>24.7</v>
@@ -50878,7 +50878,7 @@
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="B32">
         <v>28.6</v>
@@ -51006,7 +51006,7 @@
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="H33">
         <v>6.4</v>
@@ -51116,7 +51116,7 @@
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="H34">
         <v>2.5</v>
@@ -51226,7 +51226,7 @@
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="H35">
         <v>7.3</v>
@@ -51336,7 +51336,7 @@
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="H36">
         <v>2.64</v>
@@ -51446,7 +51446,7 @@
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="H37">
         <v>2.6</v>
@@ -51556,7 +51556,7 @@
     </row>
     <row r="38" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="B38">
         <v>26</v>
@@ -51591,7 +51591,7 @@
     </row>
     <row r="39" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="B39">
         <v>20.3</v>
@@ -51626,7 +51626,7 @@
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="B40">
         <v>19.399999999999999</v>
@@ -51661,7 +51661,7 @@
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="B41">
         <v>21.3</v>
@@ -51696,7 +51696,7 @@
     </row>
     <row r="42" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="B42">
         <v>24</v>
@@ -51731,7 +51731,7 @@
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="B43">
         <v>17</v>
@@ -51859,7 +51859,7 @@
     </row>
     <row r="44" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="B44">
         <v>14</v>
@@ -51987,7 +51987,7 @@
     </row>
     <row r="45" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="B45">
         <v>14</v>
@@ -52115,7 +52115,7 @@
     </row>
     <row r="46" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="B46">
         <v>16</v>
@@ -52243,7 +52243,7 @@
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="B47">
         <v>16</v>
@@ -52371,7 +52371,7 @@
     </row>
     <row r="48" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="B48">
         <v>26</v>
@@ -52499,7 +52499,7 @@
     </row>
     <row r="49" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="B49">
         <v>24</v>
@@ -52627,7 +52627,7 @@
     </row>
     <row r="50" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="B50">
         <v>26</v>
@@ -52755,7 +52755,7 @@
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="B51">
         <v>26</v>
@@ -52883,7 +52883,7 @@
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="B52">
         <v>26</v>
@@ -53011,7 +53011,7 @@
     </row>
     <row r="53" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="B53">
         <v>23</v>
@@ -53139,7 +53139,7 @@
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="B54">
         <v>22</v>
@@ -53267,7 +53267,7 @@
     </row>
     <row r="55" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="B55">
         <v>23</v>
@@ -53395,7 +53395,7 @@
     </row>
     <row r="56" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="B56">
         <v>23</v>
@@ -53523,7 +53523,7 @@
     </row>
     <row r="57" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="B57">
         <v>23</v>
@@ -53651,7 +53651,7 @@
     </row>
     <row r="58" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="B58">
         <v>25</v>
@@ -53779,7 +53779,7 @@
     </row>
     <row r="59" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="B59">
         <v>21</v>
@@ -53907,7 +53907,7 @@
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="B60">
         <v>23</v>
@@ -54035,7 +54035,7 @@
     </row>
     <row r="61" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="B61">
         <v>23</v>
@@ -54163,7 +54163,7 @@
     </row>
     <row r="62" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="B62">
         <v>24</v>
@@ -54291,7 +54291,7 @@
     </row>
     <row r="63" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="B63">
         <v>27</v>
@@ -54419,7 +54419,7 @@
     </row>
     <row r="64" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="B64">
         <v>24</v>
@@ -54547,7 +54547,7 @@
     </row>
     <row r="65" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="B65">
         <v>24</v>
@@ -54675,7 +54675,7 @@
     </row>
     <row r="66" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="B66">
         <v>24</v>
@@ -54803,7 +54803,7 @@
     </row>
     <row r="67" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="B67">
         <v>26</v>
@@ -54931,7 +54931,7 @@
     </row>
     <row r="68" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="B68">
         <v>19.5</v>
@@ -55059,7 +55059,7 @@
     </row>
     <row r="69" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="B69">
         <v>20</v>
@@ -55187,7 +55187,7 @@
     </row>
     <row r="70" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="B70">
         <v>19</v>
@@ -55315,7 +55315,7 @@
     </row>
     <row r="71" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="B71">
         <v>18.5</v>
@@ -55443,7 +55443,7 @@
     </row>
     <row r="72" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="B72">
         <v>19</v>
@@ -55571,7 +55571,7 @@
     </row>
     <row r="73" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="B73">
         <v>26</v>
@@ -55699,7 +55699,7 @@
     </row>
     <row r="74" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="B74">
         <v>22</v>
@@ -55827,7 +55827,7 @@
     </row>
     <row r="75" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="B75">
         <v>24</v>
@@ -55955,7 +55955,7 @@
     </row>
     <row r="76" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="B76">
         <v>26</v>
@@ -56083,7 +56083,7 @@
     </row>
     <row r="77" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="B77">
         <v>25</v>
@@ -56211,7 +56211,7 @@
     </row>
     <row r="78" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="B78">
         <v>25</v>
@@ -56339,7 +56339,7 @@
     </row>
     <row r="79" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="B79">
         <v>22</v>
@@ -56467,7 +56467,7 @@
     </row>
     <row r="80" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="B80">
         <v>23</v>
@@ -56595,7 +56595,7 @@
     </row>
     <row r="81" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="B81">
         <v>24</v>
@@ -56723,7 +56723,7 @@
     </row>
     <row r="82" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="B82">
         <v>25</v>
@@ -56851,7 +56851,7 @@
     </row>
     <row r="83" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="B83">
         <v>26</v>
@@ -56979,7 +56979,7 @@
     </row>
     <row r="84" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="B84">
         <v>23.5</v>
@@ -57107,7 +57107,7 @@
     </row>
     <row r="85" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="B85">
         <v>24</v>
@@ -57235,7 +57235,7 @@
     </row>
     <row r="86" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="B86">
         <v>25</v>
@@ -57363,7 +57363,7 @@
     </row>
     <row r="87" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="B87">
         <v>29</v>
@@ -57491,7 +57491,7 @@
     </row>
     <row r="88" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="B88">
         <v>22</v>
@@ -57619,7 +57619,7 @@
     </row>
     <row r="89" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="B89">
         <v>20</v>
@@ -57747,7 +57747,7 @@
     </row>
     <row r="90" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="B90">
         <v>21</v>
@@ -57875,7 +57875,7 @@
     </row>
     <row r="91" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="B91">
         <v>21</v>
@@ -58003,7 +58003,7 @@
     </row>
     <row r="92" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="B92">
         <v>22</v>
@@ -58131,7 +58131,7 @@
     </row>
     <row r="93" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="B93">
         <v>29</v>
@@ -58172,7 +58172,7 @@
     </row>
     <row r="94" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="B94">
         <v>19</v>
@@ -58213,7 +58213,7 @@
     </row>
     <row r="95" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="B95">
         <v>22</v>
@@ -58254,7 +58254,7 @@
     </row>
     <row r="96" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="B96">
         <v>25</v>
@@ -58295,7 +58295,7 @@
     </row>
     <row r="97" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="B97">
         <v>24</v>
@@ -58336,7 +58336,7 @@
     </row>
     <row r="98" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="B98">
         <v>26.5</v>
@@ -58461,7 +58461,7 @@
     </row>
     <row r="99" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="B99">
         <v>21</v>
@@ -58586,7 +58586,7 @@
     </row>
     <row r="100" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="B100">
         <v>19</v>
@@ -58711,7 +58711,7 @@
     </row>
     <row r="101" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="B101">
         <v>23</v>
@@ -58836,7 +58836,7 @@
     </row>
     <row r="102" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="B102">
         <v>24</v>
@@ -58961,7 +58961,7 @@
     </row>
     <row r="103" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="B103">
         <v>21</v>
@@ -59086,7 +59086,7 @@
     </row>
     <row r="104" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c r="B104">
         <v>16</v>
@@ -59211,7 +59211,7 @@
     </row>
     <row r="105" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="B105">
         <v>16</v>
@@ -59336,7 +59336,7 @@
     </row>
     <row r="106" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="B106">
         <v>19</v>
@@ -59461,7 +59461,7 @@
     </row>
     <row r="107" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="B107">
         <v>20</v>
@@ -59586,7 +59586,7 @@
     </row>
     <row r="108" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="B108">
         <v>25</v>
@@ -59711,7 +59711,7 @@
     </row>
     <row r="109" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="B109">
         <v>20.5</v>
@@ -59836,7 +59836,7 @@
     </row>
     <row r="110" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="B110">
         <v>23</v>
@@ -59961,7 +59961,7 @@
     </row>
     <row r="111" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="B111">
         <v>23</v>
@@ -60086,7 +60086,7 @@
     </row>
     <row r="112" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="B112">
         <v>25</v>
@@ -60211,7 +60211,7 @@
     </row>
     <row r="113" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="B113">
         <v>26</v>
@@ -60336,7 +60336,7 @@
     </row>
     <row r="114" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="B114">
         <v>22</v>
@@ -60461,7 +60461,7 @@
     </row>
     <row r="115" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="B115">
         <v>23</v>
@@ -60586,7 +60586,7 @@
     </row>
     <row r="116" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="B116">
         <v>23</v>
@@ -60711,7 +60711,7 @@
     </row>
     <row r="117" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="B117">
         <v>25</v>
@@ -60836,7 +60836,7 @@
     </row>
     <row r="118" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="B118">
         <v>27</v>
@@ -60961,7 +60961,7 @@
     </row>
     <row r="119" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="B119">
         <v>18</v>
@@ -61086,7 +61086,7 @@
     </row>
     <row r="120" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="B120">
         <v>23</v>
@@ -61211,7 +61211,7 @@
     </row>
     <row r="121" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="B121">
         <v>24</v>
@@ -61336,7 +61336,7 @@
     </row>
     <row r="122" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="B122">
         <v>25</v>
@@ -61461,7 +61461,7 @@
     </row>
     <row r="123" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="B123">
         <v>27</v>
@@ -61586,7 +61586,7 @@
     </row>
     <row r="124" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="B124">
         <v>23</v>
@@ -61711,7 +61711,7 @@
     </row>
     <row r="125" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="B125">
         <v>25</v>
@@ -61836,7 +61836,7 @@
     </row>
     <row r="126" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="B126">
         <v>25</v>
@@ -61961,7 +61961,7 @@
     </row>
     <row r="127" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="B127">
         <v>25</v>
@@ -62086,7 +62086,7 @@
     </row>
     <row r="128" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="B128">
         <v>24</v>
@@ -62208,7 +62208,7 @@
     </row>
     <row r="129" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="B129">
         <v>24</v>
@@ -62333,7 +62333,7 @@
     </row>
     <row r="130" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="B130">
         <v>23</v>
@@ -62458,7 +62458,7 @@
     </row>
     <row r="131" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="B131">
         <v>23</v>
@@ -62583,7 +62583,7 @@
     </row>
     <row r="132" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="B132">
         <v>23</v>
@@ -62708,7 +62708,7 @@
     </row>
     <row r="133" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="B133">
         <v>26</v>
@@ -62833,7 +62833,7 @@
     </row>
     <row r="134" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>222</v>
+        <v>259</v>
       </c>
       <c r="B134">
         <v>23</v>
@@ -62958,7 +62958,7 @@
     </row>
     <row r="135" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>223</v>
+        <v>260</v>
       </c>
       <c r="B135">
         <v>24</v>
@@ -63083,7 +63083,7 @@
     </row>
     <row r="136" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="B136">
         <v>24</v>
@@ -63208,7 +63208,7 @@
     </row>
     <row r="137" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>225</v>
+        <v>262</v>
       </c>
       <c r="B137">
         <v>25</v>
@@ -63333,7 +63333,7 @@
     </row>
     <row r="138" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>226</v>
+        <v>263</v>
       </c>
       <c r="B138">
         <v>24</v>
@@ -63455,7 +63455,7 @@
     </row>
     <row r="139" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="I139">
         <v>9.01</v>
@@ -63559,7 +63559,7 @@
     </row>
     <row r="140" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="B140">
         <v>24</v>
@@ -63681,7 +63681,7 @@
     </row>
     <row r="141" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="B141">
         <v>24</v>
@@ -63803,7 +63803,7 @@
     </row>
     <row r="142" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="B142">
         <v>24</v>
@@ -63925,7 +63925,7 @@
     </row>
     <row r="143" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="B143">
         <v>24</v>
@@ -64053,7 +64053,7 @@
     </row>
     <row r="144" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="B144">
         <v>25</v>
@@ -64181,7 +64181,7 @@
     </row>
     <row r="145" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="B145">
         <v>25</v>
@@ -64309,7 +64309,7 @@
     </row>
     <row r="146" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="B146">
         <v>24</v>
@@ -64434,7 +64434,7 @@
     </row>
     <row r="147" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="B147">
         <v>24</v>
@@ -64562,7 +64562,7 @@
     </row>
     <row r="148" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="B148">
         <v>27</v>
@@ -64690,7 +64690,7 @@
     </row>
     <row r="149" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="B149">
         <v>24</v>
@@ -64818,7 +64818,7 @@
     </row>
     <row r="150" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="B150">
         <v>24</v>
@@ -64946,7 +64946,7 @@
     </row>
     <row r="151" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="B151">
         <v>25</v>
@@ -65074,7 +65074,7 @@
     </row>
     <row r="152" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="B152">
         <v>27</v>
@@ -65202,7 +65202,7 @@
     </row>
     <row r="153" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="B153">
         <v>22</v>
@@ -65330,7 +65330,7 @@
     </row>
     <row r="154" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="B154">
         <v>21</v>
@@ -65458,7 +65458,7 @@
     </row>
     <row r="155" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="B155">
         <v>21</v>
@@ -65586,7 +65586,7 @@
     </row>
     <row r="156" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="B156">
         <v>23</v>
@@ -65714,7 +65714,7 @@
     </row>
     <row r="157" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="B157">
         <v>23</v>
@@ -65842,7 +65842,7 @@
     </row>
     <row r="158" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="B158">
         <v>21</v>
@@ -65877,7 +65877,7 @@
     </row>
     <row r="159" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="B159">
         <v>15</v>
@@ -65912,7 +65912,7 @@
     </row>
     <row r="160" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="B160">
         <v>17</v>
@@ -65947,7 +65947,7 @@
     </row>
     <row r="161" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="B161">
         <v>20</v>
@@ -65982,7 +65982,7 @@
     </row>
     <row r="162" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="B162">
         <v>21</v>
@@ -66017,7 +66017,7 @@
     </row>
     <row r="163" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="B163">
         <v>19</v>
@@ -66145,7 +66145,7 @@
     </row>
     <row r="164" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="B164">
         <v>16</v>
@@ -66273,7 +66273,7 @@
     </row>
     <row r="165" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="B165">
         <v>17</v>
@@ -66401,7 +66401,7 @@
     </row>
     <row r="166" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="B166">
         <v>18</v>
@@ -66529,7 +66529,7 @@
     </row>
     <row r="167" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="B167">
         <v>17</v>
@@ -66657,7 +66657,7 @@
     </row>
     <row r="168" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="B168">
         <v>26</v>
@@ -66785,7 +66785,7 @@
     </row>
     <row r="169" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="B169">
         <v>21</v>
@@ -66913,7 +66913,7 @@
     </row>
     <row r="170" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="B170">
         <v>21</v>
@@ -67041,7 +67041,7 @@
     </row>
     <row r="171" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="B171">
         <v>22</v>
@@ -67169,7 +67169,7 @@
     </row>
     <row r="172" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="B172">
         <v>26</v>
@@ -67297,7 +67297,7 @@
     </row>
     <row r="173" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="B173">
         <v>27</v>
@@ -67425,7 +67425,7 @@
     </row>
     <row r="174" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="B174">
         <v>24</v>
@@ -67553,7 +67553,7 @@
     </row>
     <row r="175" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="B175">
         <v>24</v>
@@ -67678,7 +67678,7 @@
     </row>
     <row r="176" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="B176">
         <v>24</v>
@@ -67806,7 +67806,7 @@
     </row>
     <row r="177" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="B177">
         <v>25</v>
@@ -67934,7 +67934,7 @@
     </row>
     <row r="178" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="B178">
         <v>25</v>
@@ -68062,7 +68062,7 @@
     </row>
     <row r="179" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="B179">
         <v>23</v>
@@ -68190,7 +68190,7 @@
     </row>
     <row r="180" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="B180">
         <v>23</v>
@@ -68318,7 +68318,7 @@
     </row>
     <row r="181" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="B181">
         <v>23</v>
@@ -68446,7 +68446,7 @@
     </row>
     <row r="182" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="B182">
         <v>24</v>
@@ -68574,7 +68574,7 @@
     </row>
     <row r="183" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="B183">
         <v>28</v>
@@ -68702,7 +68702,7 @@
     </row>
     <row r="184" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="B184">
         <v>28</v>
@@ -68830,7 +68830,7 @@
     </row>
     <row r="185" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="B185">
         <v>27</v>
@@ -68958,7 +68958,7 @@
     </row>
     <row r="186" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="B186">
         <v>27</v>
@@ -69086,7 +69086,7 @@
     </row>
     <row r="187" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="B187">
         <v>27</v>
@@ -69214,7 +69214,7 @@
     </row>
     <row r="188" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="B188">
         <v>24</v>
@@ -69342,7 +69342,7 @@
     </row>
     <row r="189" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="B189">
         <v>25</v>
@@ -69470,7 +69470,7 @@
     </row>
     <row r="190" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="B190">
         <v>26</v>
@@ -69598,7 +69598,7 @@
     </row>
     <row r="191" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="B191">
         <v>25</v>
@@ -69726,7 +69726,7 @@
     </row>
     <row r="192" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="B192">
         <v>25</v>
@@ -69851,7 +69851,7 @@
     </row>
     <row r="193" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="B193">
         <v>27</v>
@@ -69979,7 +69979,7 @@
     </row>
     <row r="194" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="B194">
         <v>27</v>
@@ -70107,7 +70107,7 @@
     </row>
     <row r="195" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="H195">
         <v>3.78</v>
@@ -70217,7 +70217,7 @@
     </row>
     <row r="196" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="H196">
         <v>3.58</v>
@@ -70327,7 +70327,7 @@
     </row>
     <row r="197" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="B197">
         <v>27</v>
@@ -70455,7 +70455,7 @@
     </row>
     <row r="198" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="B198">
         <v>25</v>
@@ -70583,7 +70583,7 @@
     </row>
     <row r="199" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="B199">
         <v>27</v>
@@ -70711,7 +70711,7 @@
     </row>
     <row r="200" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="B200">
         <v>24</v>
@@ -70839,7 +70839,7 @@
     </row>
     <row r="201" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="B201">
         <v>23</v>
@@ -70967,7 +70967,7 @@
     </row>
     <row r="202" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="B202">
         <v>25</v>
@@ -71095,7 +71095,7 @@
     </row>
     <row r="203" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="B203">
         <v>26</v>
@@ -71223,7 +71223,7 @@
     </row>
     <row r="204" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="B204">
         <v>25</v>
@@ -71351,7 +71351,7 @@
     </row>
     <row r="205" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="B205">
         <v>24</v>
@@ -71479,7 +71479,7 @@
     </row>
     <row r="206" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="B206">
         <v>24</v>
@@ -71607,7 +71607,7 @@
     </row>
     <row r="207" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="B207">
         <v>26</v>
@@ -71735,7 +71735,7 @@
     </row>
     <row r="208" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="B208">
         <v>27</v>
@@ -71770,7 +71770,7 @@
     </row>
     <row r="209" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="B209">
         <v>26</v>
@@ -71805,7 +71805,7 @@
     </row>
     <row r="210" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="B210">
         <v>26</v>
@@ -71840,7 +71840,7 @@
     </row>
     <row r="211" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="B211">
         <v>25</v>
@@ -71875,7 +71875,7 @@
     </row>
     <row r="212" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="B212">
         <v>26</v>
@@ -71910,7 +71910,7 @@
     </row>
     <row r="213" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="B213">
         <v>24</v>
@@ -72038,7 +72038,7 @@
     </row>
     <row r="214" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="B214">
         <v>20</v>
@@ -72166,7 +72166,7 @@
     </row>
     <row r="215" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="B215">
         <v>21</v>
@@ -72294,7 +72294,7 @@
     </row>
     <row r="216" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="B216">
         <v>21</v>
@@ -72422,7 +72422,7 @@
     </row>
     <row r="217" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="B217">
         <v>23</v>
@@ -72550,7 +72550,7 @@
     </row>
     <row r="218" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="B218">
         <v>17</v>
@@ -72678,7 +72678,7 @@
     </row>
     <row r="219" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="B219">
         <v>20</v>
@@ -72806,7 +72806,7 @@
     </row>
     <row r="220" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="B220">
         <v>21</v>
@@ -72934,7 +72934,7 @@
     </row>
     <row r="221" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="B221">
         <v>21</v>
@@ -73062,7 +73062,7 @@
     </row>
     <row r="222" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="B222">
         <v>21</v>
@@ -73190,7 +73190,7 @@
     </row>
     <row r="223" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="B223">
         <v>20</v>
@@ -73318,7 +73318,7 @@
     </row>
     <row r="224" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="B224">
         <v>18</v>
@@ -73446,7 +73446,7 @@
     </row>
     <row r="225" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="B225">
         <v>19</v>
@@ -73574,7 +73574,7 @@
     </row>
     <row r="226" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="B226">
         <v>20</v>
@@ -73702,7 +73702,7 @@
     </row>
     <row r="227" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="B227">
         <v>22</v>
@@ -73830,7 +73830,7 @@
     </row>
     <row r="228" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="B228">
         <v>25</v>
@@ -73958,7 +73958,7 @@
     </row>
     <row r="229" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="B229">
         <v>22</v>
@@ -74086,7 +74086,7 @@
     </row>
     <row r="230" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="B230">
         <v>23</v>
@@ -74214,7 +74214,7 @@
     </row>
     <row r="231" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="B231">
         <v>23</v>
@@ -74342,7 +74342,7 @@
     </row>
     <row r="232" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="B232">
         <v>23</v>
@@ -74470,7 +74470,7 @@
     </row>
     <row r="233" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="H233">
         <v>0.91</v>
@@ -74580,7 +74580,7 @@
     </row>
     <row r="234" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="H234">
         <v>0.83</v>
@@ -74690,7 +74690,7 @@
     </row>
     <row r="235" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="H235">
         <v>0.31</v>
@@ -74800,7 +74800,7 @@
     </row>
     <row r="236" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="H236">
         <v>0.43</v>
@@ -74910,7 +74910,7 @@
     </row>
     <row r="237" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="H237">
         <v>0.51</v>
@@ -75020,7 +75020,7 @@
     </row>
     <row r="238" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="B238">
         <v>25</v>
@@ -75148,7 +75148,7 @@
     </row>
     <row r="239" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="B239">
         <v>23</v>
@@ -75276,7 +75276,7 @@
     </row>
     <row r="240" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="B240">
         <v>23</v>
@@ -75404,7 +75404,7 @@
     </row>
     <row r="241" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="B241">
         <v>24</v>
@@ -75532,7 +75532,7 @@
     </row>
     <row r="242" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="B242">
         <v>24</v>
@@ -75660,7 +75660,7 @@
     </row>
     <row r="243" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="B243">
         <v>28</v>
@@ -75788,7 +75788,7 @@
     </row>
     <row r="244" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="B244">
         <v>28</v>
@@ -75916,7 +75916,7 @@
     </row>
     <row r="245" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="B245">
         <v>27</v>
@@ -76044,7 +76044,7 @@
     </row>
     <row r="246" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="B246">
         <v>27</v>
@@ -76172,7 +76172,7 @@
     </row>
     <row r="247" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="B247">
         <v>27</v>
@@ -76300,7 +76300,7 @@
     </row>
     <row r="248" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="B248">
         <v>26</v>
@@ -76428,7 +76428,7 @@
     </row>
     <row r="249" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="B249">
         <v>26</v>
@@ -76556,7 +76556,7 @@
     </row>
     <row r="250" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="B250">
         <v>27</v>
@@ -76684,7 +76684,7 @@
     </row>
     <row r="251" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="B251">
         <v>27</v>
@@ -76812,7 +76812,7 @@
     </row>
     <row r="252" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="B252">
         <v>28</v>
@@ -76940,7 +76940,7 @@
     </row>
     <row r="253" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="B253">
         <v>22</v>
@@ -77068,7 +77068,7 @@
     </row>
     <row r="254" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="B254">
         <v>20</v>
@@ -77196,7 +77196,7 @@
     </row>
     <row r="255" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="B255">
         <v>20</v>
@@ -77324,7 +77324,7 @@
     </row>
     <row r="256" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="B256">
         <v>21</v>
@@ -77452,7 +77452,7 @@
     </row>
     <row r="257" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="B257">
         <v>22</v>
@@ -77580,7 +77580,7 @@
     </row>
     <row r="258" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="B258">
         <v>24</v>
@@ -77708,7 +77708,7 @@
     </row>
     <row r="259" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="B259">
         <v>23</v>
@@ -77836,7 +77836,7 @@
     </row>
     <row r="260" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="B260">
         <v>23</v>
@@ -77964,7 +77964,7 @@
     </row>
     <row r="261" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="B261">
         <v>28</v>
@@ -78092,7 +78092,7 @@
     </row>
     <row r="262" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="B262">
         <v>25</v>
@@ -78220,7 +78220,7 @@
     </row>
     <row r="263" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="H263">
         <v>3.64</v>
@@ -78330,7 +78330,7 @@
     </row>
     <row r="264" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="H264">
         <v>1</v>
@@ -78440,7 +78440,7 @@
     </row>
     <row r="265" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="H265">
         <v>0.36</v>
@@ -78550,7 +78550,7 @@
     </row>
     <row r="266" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="H266">
         <v>0.63</v>
@@ -78660,7 +78660,7 @@
     </row>
     <row r="267" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="H267">
         <v>0.52</v>
@@ -78770,7 +78770,7 @@
     </row>
     <row r="268" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="B268">
         <v>20</v>
@@ -78898,7 +78898,7 @@
     </row>
     <row r="269" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="B269">
         <v>20</v>
@@ -79026,7 +79026,7 @@
     </row>
     <row r="270" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="B270">
         <v>21</v>
@@ -79154,7 +79154,7 @@
     </row>
     <row r="271" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="B271">
         <v>20.5</v>
@@ -79282,7 +79282,7 @@
     </row>
     <row r="272" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="B272">
         <v>19</v>
@@ -79410,7 +79410,7 @@
     </row>
     <row r="273" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="B273">
         <v>19</v>
@@ -79538,7 +79538,7 @@
     </row>
     <row r="274" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="B274">
         <v>20</v>
@@ -79666,7 +79666,7 @@
     </row>
     <row r="275" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="B275">
         <v>20</v>
@@ -79794,7 +79794,7 @@
     </row>
     <row r="276" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="B276">
         <v>20</v>
@@ -79922,7 +79922,7 @@
     </row>
     <row r="277" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="B277">
         <v>20</v>
@@ -80050,7 +80050,7 @@
     </row>
     <row r="278" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="AN278">
         <v>1</v>
@@ -80067,7 +80067,7 @@
     </row>
     <row r="279" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="AN279">
         <v>2</v>
@@ -80084,7 +80084,7 @@
     </row>
     <row r="280" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="AN280">
         <v>3</v>
@@ -80101,7 +80101,7 @@
     </row>
     <row r="281" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="AN281">
         <v>4</v>
@@ -80118,7 +80118,7 @@
     </row>
     <row r="282" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="AN282">
         <v>5</v>
@@ -80135,7 +80135,7 @@
     </row>
     <row r="283" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A283" s="141" t="s">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="B283">
         <v>17</v>
@@ -80263,7 +80263,7 @@
     </row>
     <row r="284" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="B284">
         <v>21</v>
@@ -80391,7 +80391,7 @@
     </row>
     <row r="285" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
       <c r="B285">
         <v>19</v>
@@ -80519,7 +80519,7 @@
     </row>
     <row r="286" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="B286">
         <v>20</v>
@@ -80647,7 +80647,7 @@
     </row>
     <row r="287" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="B287">
         <v>22</v>
@@ -80774,7 +80774,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -80806,7 +80805,7 @@
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>376</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.3">
@@ -80838,112 +80837,112 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>377</v>
+        <v>92</v>
       </c>
       <c r="O3" t="s">
-        <v>377</v>
+        <v>92</v>
       </c>
       <c r="P3" t="s">
-        <v>378</v>
+        <v>93</v>
       </c>
       <c r="Q3" t="s">
-        <v>379</v>
+        <v>94</v>
       </c>
       <c r="R3" t="s">
-        <v>380</v>
+        <v>95</v>
       </c>
       <c r="S3" t="s">
-        <v>381</v>
+        <v>96</v>
       </c>
       <c r="T3" t="s">
-        <v>382</v>
+        <v>97</v>
       </c>
       <c r="U3" t="s">
-        <v>383</v>
+        <v>98</v>
       </c>
       <c r="V3" t="s">
-        <v>384</v>
+        <v>99</v>
       </c>
       <c r="W3" t="s">
-        <v>385</v>
+        <v>100</v>
       </c>
       <c r="X3" t="s">
-        <v>386</v>
+        <v>101</v>
       </c>
       <c r="Y3" t="s">
-        <v>387</v>
+        <v>102</v>
       </c>
       <c r="Z3" t="s">
-        <v>388</v>
+        <v>103</v>
       </c>
       <c r="AA3" t="s">
-        <v>389</v>
+        <v>104</v>
       </c>
       <c r="AB3" t="s">
-        <v>390</v>
+        <v>105</v>
       </c>
       <c r="AC3" t="s">
-        <v>391</v>
+        <v>106</v>
       </c>
       <c r="AD3" t="s">
-        <v>392</v>
+        <v>107</v>
       </c>
       <c r="AE3" t="s">
-        <v>393</v>
+        <v>108</v>
       </c>
       <c r="AF3" t="s">
-        <v>394</v>
+        <v>109</v>
       </c>
       <c r="AG3" t="s">
-        <v>395</v>
+        <v>110</v>
       </c>
       <c r="AH3" t="s">
-        <v>396</v>
+        <v>111</v>
       </c>
       <c r="AI3" t="s">
-        <v>397</v>
+        <v>112</v>
       </c>
       <c r="AJ3" t="s">
-        <v>398</v>
+        <v>113</v>
       </c>
       <c r="AK3" t="s">
-        <v>399</v>
+        <v>114</v>
       </c>
       <c r="AL3" t="s">
-        <v>400</v>
+        <v>115</v>
       </c>
       <c r="AM3" t="s">
-        <v>401</v>
+        <v>116</v>
       </c>
       <c r="AN3" t="s">
-        <v>402</v>
+        <v>117</v>
       </c>
       <c r="AO3" t="s">
-        <v>403</v>
+        <v>118</v>
       </c>
       <c r="AP3" t="s">
-        <v>404</v>
+        <v>119</v>
       </c>
       <c r="AQ3" t="s">
-        <v>405</v>
+        <v>120</v>
       </c>
       <c r="AR3" t="s">
-        <v>406</v>
+        <v>121</v>
       </c>
       <c r="AS3" t="s">
-        <v>407</v>
+        <v>122</v>
       </c>
       <c r="AT3" t="s">
-        <v>408</v>
+        <v>123</v>
       </c>
       <c r="AU3" t="s">
-        <v>409</v>
+        <v>124</v>
       </c>
       <c r="AV3" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
       <c r="AW3" t="s">
-        <v>411</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.3">
@@ -80975,7 +80974,7 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>378</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.3">
@@ -81007,7 +81006,7 @@
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>379</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.3">
@@ -81039,7 +81038,7 @@
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>380</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.3">
@@ -81071,7 +81070,7 @@
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>381</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.3">
@@ -81103,7 +81102,7 @@
         <v>2</v>
       </c>
       <c r="M8" t="s">
-        <v>382</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.3">
@@ -81135,7 +81134,7 @@
         <v>2</v>
       </c>
       <c r="M9" t="s">
-        <v>383</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.3">
@@ -81167,7 +81166,7 @@
         <v>2</v>
       </c>
       <c r="M10" t="s">
-        <v>384</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.3">
@@ -81199,7 +81198,7 @@
         <v>2</v>
       </c>
       <c r="M11" t="s">
-        <v>385</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.3">
@@ -81231,7 +81230,7 @@
         <v>2</v>
       </c>
       <c r="M12" t="s">
-        <v>386</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.3">
@@ -81263,7 +81262,7 @@
         <v>3</v>
       </c>
       <c r="M13" t="s">
-        <v>387</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.3">
@@ -81295,7 +81294,7 @@
         <v>3</v>
       </c>
       <c r="M14" t="s">
-        <v>388</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.3">
@@ -81327,7 +81326,7 @@
         <v>3</v>
       </c>
       <c r="M15" t="s">
-        <v>389</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.3">
@@ -81359,7 +81358,7 @@
         <v>3</v>
       </c>
       <c r="M16" t="s">
-        <v>390</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -81391,7 +81390,7 @@
         <v>3</v>
       </c>
       <c r="M17" t="s">
-        <v>391</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -81423,7 +81422,7 @@
         <v>4</v>
       </c>
       <c r="M18" t="s">
-        <v>392</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -81455,7 +81454,7 @@
         <v>4</v>
       </c>
       <c r="M19" t="s">
-        <v>393</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -81487,7 +81486,7 @@
         <v>4</v>
       </c>
       <c r="M20" t="s">
-        <v>394</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -81519,7 +81518,7 @@
         <v>4</v>
       </c>
       <c r="M21" t="s">
-        <v>395</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -81551,7 +81550,7 @@
         <v>4</v>
       </c>
       <c r="M22" t="s">
-        <v>396</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -81583,7 +81582,7 @@
         <v>5</v>
       </c>
       <c r="M23" t="s">
-        <v>397</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -81615,7 +81614,7 @@
         <v>5</v>
       </c>
       <c r="M24" t="s">
-        <v>398</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -81647,7 +81646,7 @@
         <v>5</v>
       </c>
       <c r="M25" t="s">
-        <v>399</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -81679,7 +81678,7 @@
         <v>5</v>
       </c>
       <c r="M26" t="s">
-        <v>400</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -81711,7 +81710,7 @@
         <v>5</v>
       </c>
       <c r="M27" t="s">
-        <v>401</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -81743,7 +81742,7 @@
         <v>6</v>
       </c>
       <c r="M28" t="s">
-        <v>402</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -81775,7 +81774,7 @@
         <v>6</v>
       </c>
       <c r="M29" t="s">
-        <v>403</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -81807,7 +81806,7 @@
         <v>6</v>
       </c>
       <c r="M30" t="s">
-        <v>404</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -81839,7 +81838,7 @@
         <v>6</v>
       </c>
       <c r="M31" t="s">
-        <v>405</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -81871,7 +81870,7 @@
         <v>6</v>
       </c>
       <c r="M32" t="s">
-        <v>406</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -81903,7 +81902,7 @@
         <v>7</v>
       </c>
       <c r="M33" t="s">
-        <v>407</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -81935,7 +81934,7 @@
         <v>7</v>
       </c>
       <c r="M34" t="s">
-        <v>408</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
@@ -81967,7 +81966,7 @@
         <v>7</v>
       </c>
       <c r="M35" t="s">
-        <v>409</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -81999,7 +81998,7 @@
         <v>7</v>
       </c>
       <c r="M36" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -82031,7 +82030,7 @@
         <v>7</v>
       </c>
       <c r="M37" t="s">
-        <v>411</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">

--- a/datos/Cajititlán_Env.xlsx
+++ b/datos/Cajititlán_Env.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccopi\Desktop\PP\Caji\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A3A94E-FCB5-4CFA-ABEB-1CA6DA007D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F0194C-1C90-4322-AB2F-5C969068D47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{23288B8C-CFF6-477E-BC6E-3C842449D796}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{23288B8C-CFF6-477E-BC6E-3C842449D796}"/>
   </bookViews>
   <sheets>
     <sheet name="Env" sheetId="1" r:id="rId1"/>
     <sheet name="EnvP" sheetId="4" r:id="rId2"/>
     <sheet name="Junk" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2110,52 +2110,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2185,13 +2155,43 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2514,7 +2514,7 @@
   </sheetPr>
   <dimension ref="A1:AZ338"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -2602,162 +2602,162 @@
       <c r="AZ1"/>
     </row>
     <row r="2" spans="1:52" s="118" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="158" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="160" t="s">
+      <c r="A2" s="148" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="162" t="s">
+      <c r="C2" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="164" t="s">
+      <c r="D2" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="166" t="s">
+      <c r="E2" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152" t="s">
+      <c r="F2" s="142"/>
+      <c r="G2" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152" t="s">
+      <c r="H2" s="142"/>
+      <c r="I2" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="152"/>
+      <c r="J2" s="142"/>
       <c r="K2" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="152" t="s">
+      <c r="L2" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="152" t="s">
+      <c r="M2" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="154" t="s">
+      <c r="N2" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="156" t="s">
+      <c r="O2" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="144" t="s">
+      <c r="P2" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="144" t="s">
+      <c r="Q2" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="144" t="s">
+      <c r="R2" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="144" t="s">
+      <c r="S2" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="144" t="s">
+      <c r="T2" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="150" t="s">
+      <c r="U2" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="146" t="s">
+      <c r="V2" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="W2" s="148" t="s">
+      <c r="W2" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="148" t="s">
+      <c r="X2" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" s="148" t="s">
+      <c r="Y2" s="166" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="148" t="s">
+      <c r="Z2" s="166" t="s">
         <v>21</v>
       </c>
-      <c r="AA2" s="148" t="s">
+      <c r="AA2" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="142" t="s">
+      <c r="AB2" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="AC2" s="142" t="s">
+      <c r="AC2" s="162" t="s">
         <v>24</v>
       </c>
-      <c r="AD2" s="142" t="s">
+      <c r="AD2" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="AE2" s="144" t="s">
+      <c r="AE2" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="AF2" s="144" t="s">
+      <c r="AF2" s="146" t="s">
         <v>55</v>
       </c>
-      <c r="AG2" s="144" t="s">
+      <c r="AG2" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="AH2" s="144" t="s">
+      <c r="AH2" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="AI2" s="144" t="s">
+      <c r="AI2" s="146" t="s">
         <v>58</v>
       </c>
-      <c r="AJ2" s="144" t="s">
+      <c r="AJ2" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="AK2" s="144" t="s">
+      <c r="AK2" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="AL2" s="144" t="s">
+      <c r="AL2" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="AM2" s="144" t="s">
+      <c r="AM2" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="AN2" s="144" t="s">
+      <c r="AN2" s="146" t="s">
         <v>63</v>
       </c>
-      <c r="AO2" s="144" t="s">
+      <c r="AO2" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="AP2" s="144" t="s">
+      <c r="AP2" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="AQ2" s="152" t="s">
+      <c r="AQ2" s="142" t="s">
         <v>66</v>
       </c>
-      <c r="AR2" s="152" t="s">
+      <c r="AR2" s="142" t="s">
         <v>67</v>
       </c>
-      <c r="AS2" s="152" t="s">
+      <c r="AS2" s="142" t="s">
         <v>68</v>
       </c>
-      <c r="AT2" s="152" t="s">
+      <c r="AT2" s="142" t="s">
         <v>69</v>
       </c>
-      <c r="AU2" s="152" t="s">
+      <c r="AU2" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="AV2" s="152" t="s">
+      <c r="AV2" s="142" t="s">
         <v>71</v>
       </c>
-      <c r="AW2" s="152" t="s">
+      <c r="AW2" s="142" t="s">
         <v>72</v>
       </c>
-      <c r="AX2" s="152" t="s">
+      <c r="AX2" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="AY2" s="152" t="s">
+      <c r="AY2" s="142" t="s">
         <v>74</v>
       </c>
-      <c r="AZ2" s="168" t="s">
+      <c r="AZ2" s="144" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:52" s="118" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="159"/>
-      <c r="B3" s="161"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="165"/>
+      <c r="A3" s="149"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="155"/>
       <c r="E3" s="112" t="s">
         <v>26</v>
       </c>
@@ -2779,47 +2779,47 @@
       <c r="K3" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="157"/>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="145"/>
-      <c r="S3" s="145"/>
-      <c r="T3" s="145"/>
-      <c r="U3" s="151"/>
-      <c r="V3" s="147"/>
-      <c r="W3" s="149"/>
-      <c r="X3" s="149"/>
-      <c r="Y3" s="149"/>
-      <c r="Z3" s="149"/>
-      <c r="AA3" s="149"/>
-      <c r="AB3" s="143"/>
-      <c r="AC3" s="143"/>
-      <c r="AD3" s="143"/>
-      <c r="AE3" s="167"/>
-      <c r="AF3" s="167"/>
-      <c r="AG3" s="167"/>
-      <c r="AH3" s="167"/>
-      <c r="AI3" s="167"/>
-      <c r="AJ3" s="167"/>
-      <c r="AK3" s="167"/>
-      <c r="AL3" s="167"/>
-      <c r="AM3" s="167"/>
-      <c r="AN3" s="167"/>
-      <c r="AO3" s="167"/>
-      <c r="AP3" s="167"/>
-      <c r="AQ3" s="153"/>
-      <c r="AR3" s="153"/>
-      <c r="AS3" s="153"/>
-      <c r="AT3" s="153"/>
-      <c r="AU3" s="153"/>
-      <c r="AV3" s="153"/>
-      <c r="AW3" s="153"/>
-      <c r="AX3" s="153"/>
-      <c r="AY3" s="153"/>
-      <c r="AZ3" s="169"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="158"/>
+      <c r="O3" s="160"/>
+      <c r="P3" s="161"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="161"/>
+      <c r="S3" s="161"/>
+      <c r="T3" s="161"/>
+      <c r="U3" s="169"/>
+      <c r="V3" s="165"/>
+      <c r="W3" s="167"/>
+      <c r="X3" s="167"/>
+      <c r="Y3" s="167"/>
+      <c r="Z3" s="167"/>
+      <c r="AA3" s="167"/>
+      <c r="AB3" s="163"/>
+      <c r="AC3" s="163"/>
+      <c r="AD3" s="163"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="147"/>
+      <c r="AG3" s="147"/>
+      <c r="AH3" s="147"/>
+      <c r="AI3" s="147"/>
+      <c r="AJ3" s="147"/>
+      <c r="AK3" s="147"/>
+      <c r="AL3" s="147"/>
+      <c r="AM3" s="147"/>
+      <c r="AN3" s="147"/>
+      <c r="AO3" s="147"/>
+      <c r="AP3" s="147"/>
+      <c r="AQ3" s="143"/>
+      <c r="AR3" s="143"/>
+      <c r="AS3" s="143"/>
+      <c r="AT3" s="143"/>
+      <c r="AU3" s="143"/>
+      <c r="AV3" s="143"/>
+      <c r="AW3" s="143"/>
+      <c r="AX3" s="143"/>
+      <c r="AY3" s="143"/>
+      <c r="AZ3" s="145"/>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A4" s="44">
@@ -46969,40 +46969,6 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
     <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="AC2:AC3"/>
     <mergeCell ref="AD2:AD3"/>
@@ -47017,6 +46983,40 @@
     <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="U2:U3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AX2:AX3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47028,8 +47028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F147FEA-BF3F-4631-8EB6-2C924D13CB49}">
   <dimension ref="A1:AQ287"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
